--- a/src/template/template_import_student.xlsx
+++ b/src/template/template_import_student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DUAN\ELEARNING\futurekey-be\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C0480B-2250-4337-9ECE-8EDAEC925346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96861DB-0CCE-4DF8-BBE3-D1366EB1D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9ABC7949-785D-4C7F-B718-95A960077CE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -81,19 +81,7 @@
     <t>Toán</t>
   </si>
   <si>
-    <t>Tên trường</t>
-  </si>
-  <si>
-    <t>Tên lớp</t>
-  </si>
-  <si>
     <t>SCHOOL_STUDENT</t>
-  </si>
-  <si>
-    <t>THPT Phạm Văn Đồng</t>
-  </si>
-  <si>
-    <t>Lớp 10A</t>
   </si>
   <si>
     <t>0123456788</t>
@@ -508,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64440948-56DD-4990-83C5-47C2676D2EBB}">
-  <dimension ref="A2:N3"/>
+  <dimension ref="A2:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
@@ -524,16 +512,14 @@
     <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="16.7109375" style="10" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="16.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,25 +545,19 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -591,31 +571,25 @@
         <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4">
         <v>123456</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="11">
+      <c r="J3" s="11">
         <v>36504</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -624,7 +598,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{43E809D7-2288-4DF7-A035-8C8C842E8EF3}">
       <formula1>"SUPER_ADMIN,ADMIN,SCHOOL_ADMIN, SCHOOL_TEACHER,SCHOOL_STUDENT,GUEST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{FD64837B-D2F6-4D92-8A6F-12A9E2A96094}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{FD64837B-D2F6-4D92-8A6F-12A9E2A96094}">
       <formula1>"MALE,FEMALE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/template/template_import_student.xlsx
+++ b/src/template/template_import_student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DUAN\ELEARNING\futurekey-be\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96861DB-0CCE-4DF8-BBE3-D1366EB1D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07105444-FF19-4AF6-9B5B-F5BA860D5474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9ABC7949-785D-4C7F-B718-95A960077CE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -85,15 +85,15 @@
   </si>
   <si>
     <t>0123456788</t>
+  </si>
+  <si>
+    <t>12/7/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -176,11 +176,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,10 +494,10 @@
   <dimension ref="A2:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
@@ -513,13 +508,13 @@
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="16.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,7 +542,7 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -557,7 +552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -585,8 +580,8 @@
       <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="11">
-        <v>36504</v>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
